--- a/biology/Zoologie/Dolichoderus_explicans/Dolichoderus_explicans.xlsx
+++ b/biology/Zoologie/Dolichoderus_explicans/Dolichoderus_explicans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoclinea explicans
 Dolichoderus explicans est une espèce fossile de fourmis de la sous-famille des Dolichoderinae, de la tribu des Dolichoderini dans le genre Dolichoderus.
@@ -512,19 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Dolichoderus explicans est décrite en 1891 par le paléontologue et entomologiste allemand Bruno Förster (1852-1924) sous le protonyme Hypoclinea explicans[1],[2]. 
-Renommage
-En 1937, le paléontologue français Nicolas Théobald (1903-1981) renomme l'espèce Hypoclinea explicans en Dolichoderus explicans[3], suivi en 2012, le myrmécologue anglais Barry Bolton (1938-)[4],[2].
-Synonymes
-L'espèce Dolichoderus explicans a un seul synonyme :
-†Hypoclinea explicans Förster, 1891[2].
-Étymologie
-L'épithète spécifique explicans signifie en latin « expliquant ».
-Fossiles
-Selon Paleobiology Database en 2023, les collections de fossiles référencées sont au nombre de deux :
-Rupélien ou Oligocène inférieur, une collection d'Allemagne de Kleinkembs, dans la région du Bade-Wurtemberg, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[3] et une collection de France de Brunstatt dans le département du Haut-Rhin décrite en 1891 par Bruno Förster[1],[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dolichoderus explicans est décrite en 1891 par le paléontologue et entomologiste allemand Bruno Förster (1852-1924) sous le protonyme Hypoclinea explicans,. 
+</t>
         </is>
       </c>
     </row>
@@ -549,20 +554,245 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937, le paléontologue français Nicolas Théobald (1903-1981) renomme l'espèce Hypoclinea explicans en Dolichoderus explicans, suivi en 2012, le myrmécologue anglais Barry Bolton (1938-),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Dolichoderus explicans a un seul synonyme :
+†Hypoclinea explicans Förster, 1891.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique explicans signifie en latin « expliquant ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, les collections de fossiles référencées sont au nombre de deux :
+Rupélien ou Oligocène inférieur, une collection d'Allemagne de Kleinkembs, dans la région du Bade-Wurtemberg, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) et une collection de France de Brunstatt dans le département du Haut-Rhin décrite en 1891 par Bruno Förster,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 1] : 
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
 « Échantillons : R758 et 812, empreinte et contre-empreinte
-Insecte de teinte brun-clair sur tête, thorax et abdomen, ailes claires. Tête subrectangulaire, angles postérieurs arrondis, bords latéraux peu convexes ; mandibules fortement proéminentes à l'avant ; yeux petits, arrondis ; antennes manquent. Thorax ovale, allongé ; mésonotum large et allongé, bord postérieur légèrement convexe ; scutellum non apparent ; segment médiaire bien développé. Sur le côté on voit les pleurites. Abdomen renflé ; quatre gros segments, bien désarticulés, un cinquième court, étranglé après le premier segment. Aile à nervation bien apparente ; cellule discoïdale sublosangique ; une cellule cubitale fermée ; la deuxième cellule cubitale est probablement fermée aussi, mais la nervure transversale est effacée. »[3].
-Dimensions
-La longueur totale est de 8,5 mm, la tête a une longueur de 1 mm et une largeur de 1,25 mm, le thorax a une longueur de 3 mm et une largeur de 2,25 mm, l'abdomen a une longueur de 4,5 mm et une largeur de 3,25 mm, l'aile a une longueur de 7 mm[3].
-Affinités
+Insecte de teinte brun-clair sur tête, thorax et abdomen, ailes claires. Tête subrectangulaire, angles postérieurs arrondis, bords latéraux peu convexes ; mandibules fortement proéminentes à l'avant ; yeux petits, arrondis ; antennes manquent. Thorax ovale, allongé ; mésonotum large et allongé, bord postérieur légèrement convexe ; scutellum non apparent ; segment médiaire bien développé. Sur le côté on voit les pleurites. Abdomen renflé ; quatre gros segments, bien désarticulés, un cinquième court, étranglé après le premier segment. Aile à nervation bien apparente ; cellule discoïdale sublosangique ; une cellule cubitale fermée ; la deuxième cellule cubitale est probablement fermée aussi, mais la nervure transversale est effacée. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 8,5 mm, la tête a une longueur de 1 mm et une largeur de 1,25 mm, le thorax a une longueur de 3 mm et une largeur de 2,25 mm, l'abdomen a une longueur de 4,5 mm et une largeur de 3,25 mm, l'aile a une longueur de 7 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus_explicans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Ressemble beaucoup à D. oviformis mais ailes plus courtes et abdomen renflé. Représente probablement la ♀ de la forme précédente.
-À cette espèce appartiennent les échantillons R362, 703, 717, 816, 52, 494 (empreinte et contre-empreinte) et peut-être 270, 167 et 201 de la même collection et provenant aussi du gisement de Kleinkembs. »[3].
+À cette espèce appartiennent les échantillons R362, 703, 717, 816, 52, 494 (empreinte et contre-empreinte) et peut-être 270, 167 et 201 de la même collection et provenant aussi du gisement de Kleinkembs. ».
 </t>
         </is>
       </c>
